--- a/biology/Médecine/Caisse_nationale_de_santé/Caisse_nationale_de_santé.xlsx
+++ b/biology/Médecine/Caisse_nationale_de_santé/Caisse_nationale_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caisse_nationale_de_sant%C3%A9</t>
+          <t>Caisse_nationale_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Caisse nationale de santé (CNS) ou en luxembourgeois : Gesondheetskeess est un établissement public luxembourgeois qui est responsable, dans le cadre du système de sécurité sociale de l'assurance maladie dans le secteur privé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caisse_nationale_de_sant%C3%A9</t>
+          <t>Caisse_nationale_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La caisse nationale de santé est créée le 1er janvier 2009 dans le cadre de la réforme du système de sécurité sociale introduisant un statut unique pour les salariés du secteur privé[1]. La CNS succède ainsi à l'union des caisses de maladie (UCM) et aux six caisses de maladie qui couvraient le secteur privé en fonction de la catégorie socioprofessionnelle[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La caisse nationale de santé est créée le 1er janvier 2009 dans le cadre de la réforme du système de sécurité sociale introduisant un statut unique pour les salariés du secteur privé. La CNS succède ainsi à l'union des caisses de maladie (UCM) et aux six caisses de maladie qui couvraient le secteur privé en fonction de la catégorie socioprofessionnelle :
 Caisse de maladie des employés privés (CMEP) ;
 Caisse de maladie des ouvriers (CMO) ;
 Caisse de maladie des professions indépendantes (CMPI) ;
